--- a/网课安排.xlsx
+++ b/网课安排.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\2022网课\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75813757-A84C-4A6B-A6F0-BBA54028B185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D94E36-E674-4380-9E5C-5F5F7BCD2D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="1350" windowWidth="16200" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="2895" windowWidth="16200" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A8:F19"/>
+  <dimension ref="A9:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -359,72 +355,55 @@
     <col min="1" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>37243745369</v>
-      </c>
-      <c r="C8">
-        <v>33924514925</v>
-      </c>
-      <c r="D8">
-        <v>37243745369</v>
-      </c>
-      <c r="E8">
-        <v>33924514925</v>
-      </c>
-      <c r="F8">
-        <v>37243745369</v>
-      </c>
-    </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>99325937716</v>
+        <v>37243745369</v>
       </c>
       <c r="C9">
-        <v>99325937716</v>
+        <v>33924514925</v>
       </c>
       <c r="D9">
+        <v>37243745369</v>
+      </c>
+      <c r="E9">
         <v>33924514925</v>
       </c>
-      <c r="E9">
-        <v>99325937716</v>
-      </c>
       <c r="F9">
-        <v>33924514925</v>
+        <v>37243745369</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>88335065627</v>
+        <v>99325937716</v>
       </c>
       <c r="C10">
-        <v>37243745369</v>
+        <v>99325937716</v>
       </c>
       <c r="D10">
-        <v>88335065627</v>
+        <v>33924514925</v>
       </c>
       <c r="E10">
-        <v>8265514291</v>
+        <v>99325937716</v>
       </c>
       <c r="F10">
-        <v>88335065627</v>
+        <v>33924514925</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>99325937716</v>
+        <v>88335065627</v>
       </c>
       <c r="C11">
-        <v>99325937716</v>
+        <v>37243745369</v>
       </c>
       <c r="D11">
-        <v>99325937716</v>
+        <v>88335065627</v>
       </c>
       <c r="E11">
-        <v>52587123833</v>
+        <v>8265514291</v>
       </c>
       <c r="F11">
-        <v>67817986596</v>
+        <v>88335065627</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -446,90 +425,90 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>33924514925</v>
+        <v>99325937716</v>
       </c>
       <c r="C13">
-        <v>79131538663</v>
+        <v>99325937716</v>
       </c>
       <c r="D13">
         <v>99325937716</v>
       </c>
       <c r="E13">
-        <v>79131538663</v>
+        <v>52587123833</v>
       </c>
       <c r="F13">
-        <v>34182781530</v>
+        <v>67817986596</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>8265514291</v>
+        <v>33924514925</v>
       </c>
       <c r="C14">
-        <v>460836986</v>
+        <v>79131538663</v>
       </c>
       <c r="D14">
+        <v>99325937716</v>
+      </c>
+      <c r="E14">
+        <v>79131538663</v>
+      </c>
+      <c r="F14">
         <v>34182781530</v>
-      </c>
-      <c r="E14">
-        <v>460836986</v>
-      </c>
-      <c r="F14">
-        <v>99325937716</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>67817986596</v>
+        <v>8265514291</v>
       </c>
       <c r="C15">
-        <v>67817986596</v>
+        <v>460836986</v>
       </c>
       <c r="D15">
-        <v>67817986596</v>
+        <v>34182781530</v>
       </c>
       <c r="E15">
-        <v>67817986596</v>
+        <v>460836986</v>
       </c>
       <c r="F15">
-        <v>67817986596</v>
+        <v>99325937716</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>52587123833</v>
+        <v>67817986596</v>
       </c>
       <c r="C16">
-        <v>52587123833</v>
+        <v>67817986596</v>
       </c>
       <c r="D16">
-        <v>52587123833</v>
+        <v>67817986596</v>
       </c>
       <c r="E16">
-        <v>52587123833</v>
+        <v>67817986596</v>
       </c>
       <c r="F16">
-        <v>52587123833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>85560371783</v>
-      </c>
+        <v>67817986596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>85560371783</v>
+        <v>52587123833</v>
       </c>
       <c r="C17">
-        <v>85560371783</v>
+        <v>52587123833</v>
       </c>
       <c r="D17">
-        <v>85560371783</v>
+        <v>52587123833</v>
       </c>
       <c r="E17">
-        <v>85560371783</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52587123833</v>
+      </c>
+      <c r="F17">
+        <v>52587123833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>85560371783</v>
       </c>
@@ -546,7 +525,7 @@
         <v>85560371783</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>85560371783</v>
       </c>
@@ -560,6 +539,23 @@
         <v>85560371783</v>
       </c>
       <c r="E19">
+        <v>85560371783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>85560371783</v>
+      </c>
+      <c r="B20">
+        <v>85560371783</v>
+      </c>
+      <c r="C20">
+        <v>85560371783</v>
+      </c>
+      <c r="D20">
+        <v>85560371783</v>
+      </c>
+      <c r="E20">
         <v>85560371783</v>
       </c>
     </row>

--- a/网课安排.xlsx
+++ b/网课安排.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\2022网课\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D94E36-E674-4380-9E5C-5F5F7BCD2D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACA79EF-28C8-4366-B964-BEC3A0029160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="2895" windowWidth="16200" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3690" windowWidth="16200" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,7 +351,7 @@
   <dimension ref="A9:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -454,7 +458,7 @@
         <v>79131538663</v>
       </c>
       <c r="F14">
-        <v>34182781530</v>
+        <v>63655300270</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
@@ -488,7 +492,7 @@
         <v>67817986596</v>
       </c>
       <c r="F16">
-        <v>67817986596</v>
+        <v>34182781530</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -505,7 +509,7 @@
         <v>52587123833</v>
       </c>
       <c r="F17">
-        <v>52587123833</v>
+        <v>8265514291</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">

--- a/网课安排.xlsx
+++ b/网课安排.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\2022网课\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACA79EF-28C8-4366-B964-BEC3A0029160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F41149-7D68-4D69-A1BD-A299E77E7B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3690" windowWidth="16200" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间/日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30-9.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.30-10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.30-11.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.30-12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.10-13.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.30-14.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.30-15.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.30-16.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:F20"/>
+  <dimension ref="A8:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -359,41 +416,70 @@
     <col min="1" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
       <c r="B9">
-        <v>37243745369</v>
+        <v>8265514291</v>
       </c>
       <c r="C9">
-        <v>33924514925</v>
+        <v>79131538663</v>
       </c>
       <c r="D9">
-        <v>37243745369</v>
+        <v>34182781530</v>
       </c>
       <c r="E9">
-        <v>33924514925</v>
+        <v>79131538663</v>
       </c>
       <c r="F9">
-        <v>37243745369</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+        <v>34182781530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
       <c r="B10">
+        <v>79131538663</v>
+      </c>
+      <c r="C10">
+        <v>460836986</v>
+      </c>
+      <c r="D10">
+        <v>460836986</v>
+      </c>
+      <c r="E10">
+        <v>460836986</v>
+      </c>
+      <c r="F10">
         <v>99325937716</v>
       </c>
-      <c r="C10">
-        <v>99325937716</v>
-      </c>
-      <c r="D10">
-        <v>33924514925</v>
-      </c>
-      <c r="E10">
-        <v>99325937716</v>
-      </c>
-      <c r="F10">
-        <v>33924514925</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
       <c r="B11">
         <v>88335065627</v>
       </c>
@@ -404,163 +490,80 @@
         <v>88335065627</v>
       </c>
       <c r="E11">
-        <v>8265514291</v>
+        <v>34182781530</v>
       </c>
       <c r="F11">
-        <v>88335065627</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>99325937716</v>
-      </c>
-      <c r="C12">
-        <v>99325937716</v>
-      </c>
-      <c r="D12">
-        <v>99325937716</v>
-      </c>
-      <c r="E12">
-        <v>52587123833</v>
-      </c>
-      <c r="F12">
-        <v>67817986596</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>99325937716</v>
-      </c>
-      <c r="C13">
-        <v>99325937716</v>
-      </c>
-      <c r="D13">
-        <v>99325937716</v>
-      </c>
-      <c r="E13">
-        <v>52587123833</v>
-      </c>
-      <c r="F13">
-        <v>67817986596</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+        <v>920404159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
       <c r="B14">
         <v>33924514925</v>
       </c>
       <c r="C14">
-        <v>79131538663</v>
+        <v>8265514291</v>
       </c>
       <c r="D14">
-        <v>99325937716</v>
+        <v>33924514925</v>
       </c>
       <c r="E14">
-        <v>79131538663</v>
+        <v>8265514291</v>
       </c>
       <c r="F14">
         <v>63655300270</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
       <c r="B15">
-        <v>8265514291</v>
+        <v>37243745369</v>
       </c>
       <c r="C15">
-        <v>460836986</v>
+        <v>99325937716</v>
       </c>
       <c r="D15">
-        <v>34182781530</v>
+        <v>99325937716</v>
       </c>
       <c r="E15">
-        <v>460836986</v>
+        <v>33924514925</v>
       </c>
       <c r="F15">
+        <v>33924514925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
         <v>99325937716</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>67817986596</v>
-      </c>
       <c r="C16">
-        <v>67817986596</v>
+        <v>33924514925</v>
       </c>
       <c r="D16">
-        <v>67817986596</v>
+        <v>37243745369</v>
       </c>
       <c r="E16">
-        <v>67817986596</v>
+        <v>99325937716</v>
       </c>
       <c r="F16">
-        <v>34182781530</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>52587123833</v>
-      </c>
-      <c r="C17">
-        <v>52587123833</v>
-      </c>
-      <c r="D17">
-        <v>52587123833</v>
-      </c>
-      <c r="E17">
-        <v>52587123833</v>
-      </c>
-      <c r="F17">
-        <v>8265514291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>85560371783</v>
-      </c>
-      <c r="B18">
-        <v>85560371783</v>
-      </c>
-      <c r="C18">
-        <v>85560371783</v>
-      </c>
-      <c r="D18">
-        <v>85560371783</v>
-      </c>
-      <c r="E18">
-        <v>85560371783</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>85560371783</v>
-      </c>
-      <c r="B19">
-        <v>85560371783</v>
-      </c>
-      <c r="C19">
-        <v>85560371783</v>
-      </c>
-      <c r="D19">
-        <v>85560371783</v>
-      </c>
-      <c r="E19">
-        <v>85560371783</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>85560371783</v>
-      </c>
-      <c r="B20">
-        <v>85560371783</v>
-      </c>
-      <c r="C20">
-        <v>85560371783</v>
-      </c>
-      <c r="D20">
-        <v>85560371783</v>
-      </c>
-      <c r="E20">
-        <v>85560371783</v>
+        <v>37243745369</v>
       </c>
     </row>
   </sheetData>

--- a/网课安排.xlsx
+++ b/网课安排.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\2022网课\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F41149-7D68-4D69-A1BD-A299E77E7B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567085FB-6D22-4A39-84FA-0E4911B4A6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A8:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,10 +500,40 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
+      <c r="B12">
+        <v>99325937716</v>
+      </c>
+      <c r="C12">
+        <v>99325937716</v>
+      </c>
+      <c r="D12">
+        <v>99325937716</v>
+      </c>
+      <c r="E12">
+        <v>99325937716</v>
+      </c>
+      <c r="F12">
+        <v>99325937716</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
+      </c>
+      <c r="B13">
+        <v>99325937716</v>
+      </c>
+      <c r="C13">
+        <v>99325937716</v>
+      </c>
+      <c r="D13">
+        <v>99325937716</v>
+      </c>
+      <c r="E13">
+        <v>99325937716</v>
+      </c>
+      <c r="F13">
+        <v>99325937716</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
